--- a/biology/Histoire de la zoologie et de la botanique/John_Walsh_(scientifique)/John_Walsh_(scientifique).xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/John_Walsh_(scientifique)/John_Walsh_(scientifique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">John Walsh (1er juillet 1726-9 mars 1795) est un zoologue britannique.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Walsh travaille pour la Compagnie anglaise des Indes orientales à Madras, il rentre en Grande-Bretagne au début des années 1760.
 En 1757, Michel Adanson est le premier à considérer que la décharge de la silure du Sénégal est analogue à celle de la bouteille de Leyde. Cette hypothèse est vérifiée par Walsh en 1772 sur un autre poisson électrique, la torpille. Il publie plusieurs papiers en particulier « of the electric property of the torpedo » et « Of torpedoes found on the coast of England », tous deux lus devant la Royal Society.
